--- a/biology/Botanique/Franz_de_Paula_Adam_von_Waldstein/Franz_de_Paula_Adam_von_Waldstein.xlsx
+++ b/biology/Botanique/Franz_de_Paula_Adam_von_Waldstein/Franz_de_Paula_Adam_von_Waldstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz de Paula Adam Norbert Wenzel Ludwig Valentin von Waldstein est un militaire, un explorateur et naturaliste autrichien, né le 14 février 1759 à Vienne et mort le 24 mai 1823.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est marié avec Karolina Ferdinandi (1777-1844). Ce militaire prend part à la guerre contre les Turcs et à la campagne de Russie. Il se consacre, à partir de 1789 à la botanique et voyage avec Pál Kitaibel à travers la Hongrie. Son herbier est déposé à Prague.
 Il est notamment l'auteur, avec Kitaibel, de Francisci comitis Waldstein,… et Pauli Kitaibel,… Descriptiones et icones plantarum rariorum Hungariae (M.A. Schmidt, Vienne, trois volumes, 1802-1812).
